--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43411</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43413</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43423</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43424</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43464</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43471</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43472</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43494</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43496</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43524</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43532</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43544</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43549</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43559</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43563</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43570</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43572</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43574</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43581</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43585</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43602</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43642</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43644</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43649</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43698</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43711</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43718</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43724</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43735</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43762</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43766</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>43781</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43791</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43807</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43822</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43843</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43845</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43854</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43858</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43864</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43878</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43886</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43895</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43906</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43907</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43908</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43915</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43922</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43950</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43957</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>43979</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43985</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44005</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44015</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44019</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44042</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44055</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44060</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44061</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44067</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44085</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44088</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44089</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44092</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44102</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44120</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44124</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44130</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44137</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44140</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44143</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44159</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44166</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44174</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44179</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44180</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44188</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44208</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44210</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44214</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44216</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44217</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44218</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44224</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>44226</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44228</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44235</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44246</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>44247</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44250</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44252</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44271</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44309</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44320</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>44321</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>44327</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44335</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44337</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44349</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44353</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44354</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44376</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44380</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44383</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44390</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44421</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44424</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44433</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44434</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44455</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44462</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44463</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44468</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44475</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44477</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44478</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44480</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44505</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44511</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44553</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44557</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44572</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44573</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44579</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44580</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44595</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44602</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44609</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44610</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44614</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44620</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44650</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44662</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>44687</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44694</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44698</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>44722</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44740</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44743</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44757</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44764</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44783</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44798</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44801</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44802</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44826</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44843</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44845</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44848</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44869</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44872</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44893</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44902</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44903</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44910</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44965</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>44966</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
         <v>44978</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44993</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44997</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>45002</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45009</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45011</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45012</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>45015</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>45016</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45019</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45035</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45036</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45055</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45062</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45063</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45071</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45091</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45092</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45096</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45097</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>45100</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45105</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45107</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>45110</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45119</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45140</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45141</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43411</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43413</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43423</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43424</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43464</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43471</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43472</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43494</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43496</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43524</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43532</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43544</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43549</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43559</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43563</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43570</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43572</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43574</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43581</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43585</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43602</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43642</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43644</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43649</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43698</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43711</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43718</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43724</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43735</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43762</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43766</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>43781</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43791</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43807</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43822</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43843</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43845</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43854</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43858</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43864</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43878</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43886</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43895</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43906</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43907</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43908</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43915</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43922</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43950</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43957</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>43979</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43985</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44005</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44015</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44019</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44042</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44055</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44060</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44061</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44067</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44085</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44088</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44089</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44092</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44102</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44120</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44124</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44130</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44137</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44140</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44143</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44159</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44166</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44174</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44179</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44180</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44188</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44208</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44210</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44214</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44216</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44217</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44218</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44224</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>44226</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44228</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44235</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44246</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>44247</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44250</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44252</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44271</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44309</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44320</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>44321</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>44327</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44335</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44337</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44349</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44353</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44354</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44376</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44380</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44383</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44390</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44421</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44424</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44433</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44434</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44455</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44462</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44463</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44468</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44475</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44477</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44478</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44480</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44505</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44511</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44553</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44557</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44572</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44573</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44579</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44580</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44595</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44602</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44609</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44610</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44614</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44620</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44650</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44662</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>44687</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44694</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44698</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>44722</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44740</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44743</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44757</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44764</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44783</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44798</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44801</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44802</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44826</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44843</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44845</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44848</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44869</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44872</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44893</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44902</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44903</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44910</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44965</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>44966</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
         <v>44978</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44993</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44997</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>45002</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45009</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45011</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45012</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>45015</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>45016</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45019</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45035</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45036</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45055</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45062</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45063</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45071</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45091</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45092</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45096</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45097</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>45100</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45105</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45107</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>45110</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45119</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45140</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45141</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y423"/>
+  <dimension ref="A1:Y424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43411</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43413</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43423</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43424</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43464</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43471</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43472</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43494</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43496</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43524</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43532</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43544</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43549</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43559</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43563</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43570</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43572</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43574</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43581</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43585</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43586</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43602</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43619</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43642</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43644</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43649</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43698</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43711</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43718</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43724</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43735</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43762</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43766</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>43781</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43791</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43807</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43822</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43843</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43845</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43854</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43858</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43864</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43878</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43886</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43895</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43906</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43907</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43908</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43915</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43922</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43948</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43950</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43957</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>43979</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43985</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44005</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44015</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44019</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44042</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44055</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44060</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44061</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44067</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44085</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44088</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44089</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44092</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44102</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44120</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44124</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44130</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44137</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44140</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44143</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44159</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44166</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44174</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44179</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44180</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44188</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44208</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44210</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44214</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44216</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44217</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44218</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44224</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>44226</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44228</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44235</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44246</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>44247</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44250</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44252</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44271</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44309</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>44320</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>44321</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>44327</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44335</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44337</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44349</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44353</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44354</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44376</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44380</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44383</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44390</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44421</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44424</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44433</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44434</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44455</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44462</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44463</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44468</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44475</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44477</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44478</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44480</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44505</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44508</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44511</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44553</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44557</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44572</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44573</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44579</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44580</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44595</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44602</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44609</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44610</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44614</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44620</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44650</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44662</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>44687</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44694</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44698</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>44722</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44740</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44743</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44757</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44764</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44783</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44788</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44798</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44801</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44802</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44826</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44832</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44843</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44845</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44848</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44869</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44872</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44893</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44902</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44903</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44910</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44965</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>44966</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
         <v>44978</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44993</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44997</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>45002</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45009</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45011</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45012</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>45015</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>45016</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45019</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45035</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45036</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45055</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45062</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45063</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45071</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45091</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45092</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45096</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45097</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>45100</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45105</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45107</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>45110</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45119</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45140</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45141</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
       </c>
       <c r="R422" s="2" t="inlineStr"/>
     </row>
-    <row r="423">
+    <row r="423" ht="15" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
           <t>A 36952-2023</t>
@@ -25283,7 +25283,7 @@
         <v>45154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25329,6 +25329,63 @@
         <v>0</v>
       </c>
       <c r="R423" s="2" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>A 41440-2023</t>
+        </is>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C424" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>OSBY</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24304-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24304-2020.xlsx", "A 24304-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24304-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24304-2020.png", "A 24304-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24304-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24304-2020.docx", "A 24304-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24304-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24304-2020.docx", "A 24304-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24304-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24304-2020.docx", "A 24304-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24304-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24304-2020.docx", "A 24304-2020")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 54306-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 54306-2021.xlsx", "A 54306-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 54306-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 54306-2021.png", "A 54306-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 54306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 54306-2021.docx", "A 54306-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 54306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 54306-2021.docx", "A 54306-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 54306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 54306-2021.docx", "A 54306-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 54306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 54306-2021.docx", "A 54306-2021")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 5791-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 5791-2019.xlsx", "A 5791-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 5791-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 5791-2019.png", "A 5791-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 5791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 5791-2019.docx", "A 5791-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 5791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 5791-2019.docx", "A 5791-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 5791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 5791-2019.docx", "A 5791-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 5791-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 5791-2019.docx", "A 5791-2019")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 6674-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 6674-2019.xlsx", "A 6674-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 6674-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 6674-2019.png", "A 6674-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 6674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 6674-2019.docx", "A 6674-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 6674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 6674-2019.docx", "A 6674-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 6674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 6674-2019.docx", "A 6674-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 6674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 6674-2019.docx", "A 6674-2019")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,27 +977,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 38268-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 38268-2019.xlsx", "A 38268-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 38268-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 38268-2019.png", "A 38268-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 38268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 38268-2019.docx", "A 38268-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 38268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 38268-2019.docx", "A 38268-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 38268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 38268-2019.docx", "A 38268-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 38268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 38268-2019.docx", "A 38268-2019")</f>
         <v/>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 50573-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 50573-2019.xlsx", "A 50573-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 50573-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 50573-2019.png", "A 50573-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 50573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 50573-2019.docx", "A 50573-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 50573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 50573-2019.docx", "A 50573-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 50573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 50573-2019.docx", "A 50573-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 50573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 50573-2019.docx", "A 50573-2019")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 53436-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 53436-2019.xlsx", "A 53436-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 53436-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 53436-2019.png", "A 53436-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 53436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 53436-2019.docx", "A 53436-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 53436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 53436-2019.docx", "A 53436-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 53436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 53436-2019.docx", "A 53436-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 53436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 53436-2019.docx", "A 53436-2019")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1237,27 +1237,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 15777-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 15777-2020.xlsx", "A 15777-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 15777-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 15777-2020.png", "A 15777-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 15777-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 15777-2020.docx", "A 15777-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 15777-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 15777-2020.docx", "A 15777-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 15777-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 15777-2020.docx", "A 15777-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 15777-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 15777-2020.docx", "A 15777-2020")</f>
         <v/>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 20474-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 20474-2020.xlsx", "A 20474-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 20474-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 20474-2020.png", "A 20474-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 20474-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 20474-2020.docx", "A 20474-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 20474-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 20474-2020.docx", "A 20474-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 20474-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 20474-2020.docx", "A 20474-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 20474-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 20474-2020.docx", "A 20474-2020")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,27 +1412,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24297-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24297-2020.xlsx", "A 24297-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24297-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24297-2020.png", "A 24297-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24297-2020.docx", "A 24297-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24297-2020.docx", "A 24297-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24297-2020.docx", "A 24297-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24297-2020.docx", "A 24297-2020")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,27 +1497,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 32766-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 32766-2021.xlsx", "A 32766-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 32766-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 32766-2021.png", "A 32766-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 32766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 32766-2021.docx", "A 32766-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 32766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 32766-2021.docx", "A 32766-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 32766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 32766-2021.docx", "A 32766-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 32766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 32766-2021.docx", "A 32766-2021")</f>
         <v/>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,27 +1587,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 47612-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 47612-2022.xlsx", "A 47612-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 47612-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 47612-2022.png", "A 47612-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 47612-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 47612-2022.docx", "A 47612-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 47612-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 47612-2022.docx", "A 47612-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 47612-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 47612-2022.docx", "A 47612-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 47612-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 47612-2022.docx", "A 47612-2022")</f>
         <v/>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,27 +1672,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 58641-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 58641-2022.xlsx", "A 58641-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 58641-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 58641-2022.png", "A 58641-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 58641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 58641-2022.docx", "A 58641-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 58641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 58641-2022.docx", "A 58641-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 58641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 58641-2022.docx", "A 58641-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 58641-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 58641-2022.docx", "A 58641-2022")</f>
         <v/>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,27 +1762,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 61517-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 61517-2022.xlsx", "A 61517-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 61517-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 61517-2022.png", "A 61517-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 61517-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 61517-2022.docx", "A 61517-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 61517-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 61517-2022.docx", "A 61517-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 61517-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 61517-2022.docx", "A 61517-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 61517-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 61517-2022.docx", "A 61517-2022")</f>
         <v/>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1847,27 +1847,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24388-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 24388-2023.xlsx", "A 24388-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24388-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 24388-2023.png", "A 24388-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 24388-2023.docx", "A 24388-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 24388-2023.docx", "A 24388-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 24388-2023.docx", "A 24388-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 24388-2023.docx", "A 24388-2023")</f>
         <v/>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1937,27 +1937,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 42027-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/artfynd/A 42027-2023.xlsx", "A 42027-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 42027-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/kartor/A 42027-2023.png", "A 42027-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 42027-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomål/A 42027-2023.docx", "A 42027-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 42027-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/klagomålsmail/A 42027-2023.docx", "A 42027-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 42027-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsyn/A 42027-2023.docx", "A 42027-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 42027-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSBY/tillsynsmail/A 42027-2023.docx", "A 42027-2023")</f>
         <v/>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y425"/>
+  <dimension ref="A1:Y426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
       </c>
       <c r="R424" s="2" t="inlineStr"/>
     </row>
-    <row r="425">
+    <row r="425" ht="15" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
           <t>A 41440-2023</t>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25476,6 +25476,63 @@
         <v>0</v>
       </c>
       <c r="R425" s="2" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>A 43689-2023</t>
+        </is>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>OSBY</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0</v>
+      </c>
+      <c r="O426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R426" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y426"/>
+  <dimension ref="A1:Y427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
       </c>
       <c r="R425" s="2" t="inlineStr"/>
     </row>
-    <row r="426">
+    <row r="426" ht="15" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
           <t>A 43689-2023</t>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25533,6 +25533,63 @@
         <v>0</v>
       </c>
       <c r="R426" s="2" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>A 46247-2023</t>
+        </is>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>OSBY</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45196</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45196</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45196</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -572,7 +572,7 @@
         <v>43976</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43684</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43735</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43748</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43976</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44902</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44910</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45082</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43406</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43410</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43411</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43423</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43424</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43464</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43464</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43471</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43493</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43494</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43496</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43518</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43524</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43532</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43544</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43559</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43563</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43567</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43572</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43572</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43585</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43585</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43585</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43586</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43588</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43619</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43642</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43649</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43663</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43680</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43680</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43711</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43711</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43711</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43711</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43711</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43711</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43724</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43742</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43766</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43767</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43807</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43807</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43822</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43822</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43843</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43843</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43854</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43878</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43881</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43895</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43896</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43906</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43907</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43908</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43922</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43935</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43948</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43950</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43957</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43979</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43985</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43986</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44005</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44014</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44015</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44019</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44055</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44057</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44060</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44061</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44067</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44082</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44082</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44085</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44085</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>44088</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44089</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44092</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44106</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44113</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44113</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44120</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44124</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44126</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44130</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44140</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44140</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44143</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44166</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44166</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44179</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44180</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44186</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44188</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44194</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44200</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44200</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44208</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44210</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44210</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44214</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44214</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44214</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44216</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44218</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44218</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44226</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44228</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44235</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44246</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44246</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44247</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44250</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44252</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44280</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44309</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44320</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44327</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44335</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44337</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44337</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44349</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44353</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44354</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44357</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44380</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44383</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44421</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44424</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44433</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44434</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44434</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44455</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44468</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44475</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44477</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>44478</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44480</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>44481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44487</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44487</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>44494</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44505</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>44508</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>44511</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>44553</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44557</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44572</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44573</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44579</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44595</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44610</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44620</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44650</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44662</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44662</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44687</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44694</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44698</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44740</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44743</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44764</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44783</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44788</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44790</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44790</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44801</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44826</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44826</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44832</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44832</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44834</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44843</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44845</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44872</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44903</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44910</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44958</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44958</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44965</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44965</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44966</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44978</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44997</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44997</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45002</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45002</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45011</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45015</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45016</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45035</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45035</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45035</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45036</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45036</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45055</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45062</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45063</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45071</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45071</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45091</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45092</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45096</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>45097</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>45097</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45100</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>45105</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>45110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>45110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45119</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45140</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45140</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45141</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45141</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45141</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45141</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>45141</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>45141</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45175</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45196</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
